--- a/commands.xlsx
+++ b/commands.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
   <si>
     <t>Название команды</t>
   </si>
@@ -54,9 +54,6 @@
     <t>aliance</t>
   </si>
   <si>
-    <t>"список всех доступных ФС</t>
-  </si>
-  <si>
     <t>Получить список доступных файловых систем (ФС)</t>
   </si>
   <si>
@@ -72,9 +69,6 @@
     <t>catalog</t>
   </si>
   <si>
-    <t>"список каталогов"</t>
-  </si>
-  <si>
     <t>Получить содержимое файла</t>
   </si>
   <si>
@@ -87,9 +81,6 @@
     <t>content_file</t>
   </si>
   <si>
-    <t>"содержимое файла"</t>
-  </si>
-  <si>
     <t>Ошибка выполнения операции</t>
   </si>
   <si>
@@ -111,16 +102,31 @@
     <t>ориентированный ожидаемый объем данных от сервера ~5 мб</t>
   </si>
   <si>
-    <t>true/false</t>
-  </si>
-  <si>
     <t>ориентированный ожидаемый объем данных от сервера ~40 мб, если клиент видит в 2 параметре - 1, значит ожидаем еще одну пачку данных</t>
+  </si>
+  <si>
+    <t>Промежуточная операция: ожидаемый объем</t>
+  </si>
+  <si>
+    <t>"ожидаемый размер данных в байтах"</t>
+  </si>
+  <si>
+    <t>После любой команды между сервером и клиентом происходит мимолетный обмен по которому принимающая сторона готовится к ожидаемому объему данных, полученных в результате ранее отправленной команды</t>
+  </si>
+  <si>
+    <t>index - "список всех доступных ФС</t>
+  </si>
+  <si>
+    <t>index - "список каталогов"</t>
+  </si>
+  <si>
+    <t>index -"содержимое файла"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -139,7 +145,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -160,12 +166,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -397,11 +409,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -409,12 +458,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -433,13 +476,34 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -448,20 +512,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -746,7 +810,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:H7"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -762,180 +826,192 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="10" t="s">
+      <c r="G1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="14" t="s">
-        <v>28</v>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="19" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13"/>
-      <c r="B3" s="6" t="s">
+    <row r="3" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="18"/>
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="15"/>
+      <c r="E3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="20"/>
     </row>
     <row r="4" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="E4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="22"/>
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="14" t="s">
+      <c r="E5" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
-      <c r="B5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="15"/>
+      <c r="F5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="20"/>
     </row>
     <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="G6" s="3"/>
+      <c r="H6" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="22"/>
+      <c r="B7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="17"/>
-      <c r="B7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="15"/>
+      <c r="E7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="20"/>
     </row>
     <row r="8" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
+      <c r="E8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+    <row r="9" spans="1:8" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="10" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
@@ -948,7 +1024,8 @@
       <c r="H10" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="H2:H3"/>
@@ -956,6 +1033,7 @@
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="H6:H7"/>
+    <mergeCell ref="D9:G9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/commands.xlsx
+++ b/commands.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
   <si>
     <t>Название команды</t>
   </si>
@@ -121,12 +121,24 @@
   </si>
   <si>
     <t>index -"содержимое файла"</t>
+  </si>
+  <si>
+    <t>Получить результат запроса по хэш-коду</t>
+  </si>
+  <si>
+    <t>хэш-код</t>
+  </si>
+  <si>
+    <t>Содержимое файла</t>
+  </si>
+  <si>
+    <t>По заданному хеш коду сервер отправляет данные помещенные во временное хранилище</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -145,18 +157,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -166,18 +172,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -195,35 +201,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -413,13 +391,33 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -428,22 +426,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -452,79 +435,77 @@
   </cellStyleXfs>
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -807,10 +788,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -826,205 +807,237 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="19" t="s">
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="20"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="12"/>
     </row>
     <row r="4" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="19" t="s">
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="22"/>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="20"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="12"/>
     </row>
     <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="19" t="s">
+      <c r="G6" s="9"/>
+      <c r="H6" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="6"/>
+      <c r="B7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="20"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="12"/>
     </row>
     <row r="8" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="9" t="s">
+      <c r="C8" s="14"/>
+      <c r="D8" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="6"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:8" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="23" t="s">
+      <c r="C9" s="19"/>
+      <c r="D9" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="10" t="s">
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="21" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="22"/>
+      <c r="H10" s="24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="23"/>
+      <c r="F11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="23"/>
+      <c r="H11" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="H10:H11"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="A2:A3"/>

--- a/commands.xlsx
+++ b/commands.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="41">
   <si>
     <t>Название команды</t>
   </si>
@@ -114,12 +114,6 @@
     <t>После любой команды между сервером и клиентом происходит мимолетный обмен по которому принимающая сторона готовится к ожидаемому объему данных, полученных в результате ранее отправленной команды</t>
   </si>
   <si>
-    <t>index - "список всех доступных ФС</t>
-  </si>
-  <si>
-    <t>index - "список каталогов"</t>
-  </si>
-  <si>
     <t>index -"содержимое файла"</t>
   </si>
   <si>
@@ -133,6 +127,21 @@
   </si>
   <si>
     <t>По заданному хеш коду сервер отправляет данные помещенные во временное хранилище</t>
+  </si>
+  <si>
+    <t>Сервер (fast)</t>
+  </si>
+  <si>
+    <t>index - "номер сгенерированного запроса, по которому клиент заберет заявку на получение файла из Сервер (ftp)</t>
+  </si>
+  <si>
+    <t>номер запроса</t>
+  </si>
+  <si>
+    <t>Сервер (ftp)</t>
+  </si>
+  <si>
+    <t>Отправка необходимого объема данных разбитых в пакеты</t>
   </si>
 </sst>
 </file>
@@ -183,7 +192,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -429,11 +438,152 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -441,18 +591,6 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -462,20 +600,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -486,15 +612,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -502,11 +619,86 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -788,10 +980,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10:H11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -833,220 +1025,255 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A3" s="33"/>
+      <c r="B3" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="26"/>
+      <c r="H3" s="27"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="33"/>
+      <c r="B4" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="37"/>
+    </row>
+    <row r="5" spans="1:8" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="33"/>
+      <c r="B5" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="10" t="s">
-        <v>25</v>
-      </c>
+      <c r="C5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="39"/>
     </row>
-    <row r="3" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="11" t="s">
+    <row r="6" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="D6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="123.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="24"/>
+      <c r="B7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="11" t="s">
+      <c r="D7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F7" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="22"/>
+    </row>
+    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="24"/>
+      <c r="B9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="22"/>
     </row>
-    <row r="4" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="9" t="s">
+    <row r="10" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="20"/>
+      <c r="D10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:8" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C12" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="10" t="s">
-        <v>26</v>
+      <c r="D12" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="11"/>
+      <c r="H12" s="15" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="11" t="s">
+    <row r="13" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="14"/>
+      <c r="B13" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C13" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="12"/>
-    </row>
-    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="12"/>
-    </row>
-    <row r="8" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="13" t="s">
+      <c r="D13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="17"/>
-    </row>
-    <row r="9" spans="1:8" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="E13" s="12"/>
+      <c r="F13" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="22"/>
-      <c r="H10" s="24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="23"/>
-      <c r="F11" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="23"/>
-      <c r="H11" s="25"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="A2:A3"/>
+  <mergeCells count="12">
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B10:C10"/>
     <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="H6:H7"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="D5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/commands.xlsx
+++ b/commands.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="62">
   <si>
     <t>Название команды</t>
   </si>
@@ -96,9 +96,6 @@
     <t>После любой команды между сервером и клиентом происходит мимолетный обмен по которому принимающая сторона готовится к ожидаемому объему данных, полученных в результате ранее отправленной команды</t>
   </si>
   <si>
-    <t>index -"содержимое файла"</t>
-  </si>
-  <si>
     <t>хэш-код</t>
   </si>
   <si>
@@ -127,7 +124,253 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Промежуточная операция: ожидаемый объем                  </t>
+      <t xml:space="preserve">Получить все каталоги в интересующей ФС </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Поддерживается)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ошибка выполнения операции </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Поддерживается)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Получить список доступных файловых систем (ФС)                                                              </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Поддерживается)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Получить содержимое файла</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Поддерживается)</t>
+    </r>
+  </si>
+  <si>
+    <t>remove</t>
+  </si>
+  <si>
+    <t>1/0 результат выполнения команды</t>
+  </si>
+  <si>
+    <t>Удаляет по указанному пути файл или папку</t>
+  </si>
+  <si>
+    <t>Четвертый параметр (массив байтов)</t>
+  </si>
+  <si>
+    <t>Пятый параметр (массив байтов)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Переименовать файл/папку          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Поддерживается)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Загрузить файл                                     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Поддерживается)</t>
+    </r>
+  </si>
+  <si>
+    <t>Переименовывает по указанному пути файл или папку</t>
+  </si>
+  <si>
+    <t>try_remove</t>
+  </si>
+  <si>
+    <t>try_rename</t>
+  </si>
+  <si>
+    <t>rename</t>
+  </si>
+  <si>
+    <t>try_upload</t>
+  </si>
+  <si>
+    <t>Создает по указанному пути папку</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Удалить файл/папку                                 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Поддерживается)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Создать папку   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(Поддерживается)   </t>
+    </r>
+  </si>
+  <si>
+    <t>try_create_dir</t>
+  </si>
+  <si>
+    <t>create_dir</t>
+  </si>
+  <si>
+    <t>Загружает файл по указанному пути</t>
+  </si>
+  <si>
+    <t>upload</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Промежуточная операция: ожидаемый объем                                                                   </t>
     </r>
     <r>
       <rPr>
@@ -145,7 +388,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Получить результат запроса по хэш-коду                        </t>
+      <t xml:space="preserve">Получить результат запроса по хэш-коду                                                                                     </t>
     </r>
     <r>
       <rPr>
@@ -162,245 +405,20 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Получить все каталоги в интересующей ФС </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="14"/>
-        <color rgb="FF008000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Поддерживается)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Ошибка выполнения операции </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="14"/>
-        <color rgb="FF008000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Поддерживается)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Получить список доступных файловых систем (ФС)                                                              </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="14"/>
-        <color rgb="FF008000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Поддерживается)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Получить содержимое файла</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF008000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="14"/>
-        <color rgb="FF008000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Поддерживается)</t>
-    </r>
-  </si>
-  <si>
-    <t>remove</t>
-  </si>
-  <si>
-    <t>1/0 результат выполнения команды</t>
-  </si>
-  <si>
-    <t>Удаляет по указанному пути файл или папку</t>
-  </si>
-  <si>
-    <t>Четвертый параметр (массив байтов)</t>
-  </si>
-  <si>
-    <t>Пятый параметр (массив байтов)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Удалить файл/папку                    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="14"/>
-        <color rgb="FF008000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Поддерживается)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Переименовать файл/папку          </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="14"/>
-        <color rgb="FF008000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Поддерживается)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Загрузить файл                                     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="14"/>
-        <color rgb="FF008000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Поддерживается)</t>
-    </r>
-  </si>
-  <si>
-    <t>Переименовывает по указанному пути файл или папку</t>
-  </si>
-  <si>
-    <t>try_remove</t>
-  </si>
-  <si>
-    <t>try_rename</t>
-  </si>
-  <si>
-    <t>rename</t>
-  </si>
-  <si>
-    <t>try_upload</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Создать папку   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                                </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="14"/>
-        <color rgb="FF008000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Поддерживается)</t>
-    </r>
-  </si>
-  <si>
-    <t>Создает по указанному пути папку</t>
+    <t>index - "номер сгенерированного запроса, по которому клиент заберет заявку на получение всех доступных файловых систем"</t>
+  </si>
+  <si>
+    <t>index - "номер сгенерированного запроса, по которому клиент заберет заявку на получение всех каталогов"</t>
+  </si>
+  <si>
+    <t>заявка</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -472,6 +490,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -499,7 +526,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -594,19 +621,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -616,17 +630,6 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -833,7 +836,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -841,31 +844,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -874,82 +859,85 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1239,67 +1227,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="1" max="2" width="46.28515625" customWidth="1"/>
     <col min="3" max="3" width="22.7109375" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" customWidth="1"/>
     <col min="5" max="5" width="35.85546875" customWidth="1"/>
     <col min="6" max="6" width="31.28515625" customWidth="1"/>
     <col min="7" max="7" width="17.7109375" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="43" customWidth="1"/>
+    <col min="10" max="10" width="40.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="J1" s="19" t="s">
+      <c r="H1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>39</v>
+      <c r="A2" s="16" t="s">
+        <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -1309,79 +1294,79 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="A3" s="17"/>
+      <c r="B3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="14"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+      <c r="B4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="11" t="s">
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="14"/>
+    </row>
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="18"/>
+      <c r="B5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="8"/>
-    </row>
-    <row r="5" spans="1:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="9"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="15"/>
     </row>
     <row r="6" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>37</v>
+      <c r="A6" s="16" t="s">
+        <v>34</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>11</v>
@@ -1393,79 +1378,79 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="11" t="s">
+      <c r="A7" s="17"/>
+      <c r="B7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="14"/>
+    </row>
+    <row r="8" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17"/>
+      <c r="B8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="8"/>
-    </row>
-    <row r="8" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="11" t="s">
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="14"/>
+    </row>
+    <row r="9" spans="1:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="18"/>
+      <c r="B9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="8"/>
-    </row>
-    <row r="9" spans="1:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="9"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="15"/>
     </row>
     <row r="10" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>40</v>
+      <c r="A10" s="16" t="s">
+        <v>37</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>14</v>
@@ -1479,111 +1464,111 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="11" t="s">
+      <c r="J10" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
+      <c r="B11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="8"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="14"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="11" t="s">
+      <c r="A12" s="17"/>
+      <c r="B12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="14"/>
+    </row>
+    <row r="13" spans="1:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="18"/>
+      <c r="B13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="20" t="s">
         <v>32</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="8"/>
-    </row>
-    <row r="13" spans="1:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>33</v>
       </c>
       <c r="E13" s="23"/>
       <c r="F13" s="23"/>
       <c r="G13" s="23"/>
       <c r="H13" s="23"/>
       <c r="I13" s="24"/>
-      <c r="J13" s="9"/>
+      <c r="J13" s="15"/>
     </row>
     <row r="14" spans="1:10" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="14" t="s">
+      <c r="A14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="15" t="s">
+      <c r="C14" s="19"/>
+      <c r="D14" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" ht="113.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="14" t="s">
+      <c r="A15" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="25" t="s">
+      <c r="C15" s="19"/>
+      <c r="D15" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="27"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="29"/>
       <c r="J15" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>36</v>
+      <c r="A16" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>9</v>
@@ -1596,277 +1581,292 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="7" t="s">
+      <c r="J16" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="18"/>
+      <c r="B17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="15"/>
+    </row>
+    <row r="18" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="9"/>
-    </row>
-    <row r="18" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
+      <c r="D18" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="28" t="s">
+      <c r="E18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="28"/>
+      <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="29" t="s">
-        <v>43</v>
+      <c r="J18" s="13" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="21"/>
-      <c r="B19" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="F19" s="16"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="31"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="32"/>
     </row>
     <row r="20" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" s="28" t="s">
+      <c r="A20" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="28"/>
+      <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
-      <c r="J20" s="29" t="s">
-        <v>55</v>
+      <c r="J20" s="13" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="32"/>
-      <c r="B21" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="34"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="15"/>
     </row>
     <row r="22" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="28" t="s">
+      <c r="E22" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G22" s="28"/>
+      <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
-      <c r="J22" s="29" t="s">
+      <c r="J22" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="26"/>
+      <c r="B23" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="15"/>
+    </row>
+    <row r="24" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="32"/>
-      <c r="B23" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="F23" s="13"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="34"/>
-    </row>
-    <row r="24" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24" s="28" t="s">
+      <c r="E24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="G24" s="2"/>
+      <c r="H24" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G24" s="28"/>
-      <c r="H24" s="2"/>
       <c r="I24" s="2"/>
-      <c r="J24" s="37" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="36"/>
-      <c r="B25" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="F25" s="11"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="38"/>
+      <c r="J24" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="30"/>
+      <c r="B25" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="14"/>
     </row>
     <row r="26" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="36"/>
-      <c r="B26" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="35"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="38"/>
-    </row>
-    <row r="27" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="21"/>
-      <c r="B27" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="E27" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="F27" s="16"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="39"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="14"/>
+    </row>
+    <row r="27" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="30"/>
+      <c r="B27" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="14"/>
+    </row>
+    <row r="28" spans="1:10" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="31"/>
+      <c r="B28" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="24">
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="J22:J23"/>
     <mergeCell ref="D15:I15"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="J24:J27"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="J24:J28"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="J20:J21"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="J18:J19"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="D28:I28"/>
+    <mergeCell ref="D27:I27"/>
     <mergeCell ref="J2:J5"/>
     <mergeCell ref="J6:J9"/>
     <mergeCell ref="A10:A13"/>
@@ -1875,6 +1875,11 @@
     <mergeCell ref="J16:J17"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/commands.xlsx
+++ b/commands.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="64">
   <si>
     <t>Название команды</t>
   </si>
@@ -412,6 +412,12 @@
   </si>
   <si>
     <t>заявка</t>
+  </si>
+  <si>
+    <t>имя файла</t>
+  </si>
+  <si>
+    <t>"расположение в файловой системе (относительный путь), в которую идет загрузка ( желательно чтобы это была папка)"</t>
   </si>
 </sst>
 </file>
@@ -874,13 +880,43 @@
     <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -908,36 +944,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1229,7 +1235,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1277,7 +1285,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="26" t="s">
         <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1294,12 +1302,12 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
+      <c r="A3" s="27"/>
       <c r="B3" s="5" t="s">
         <v>28</v>
       </c>
@@ -1318,10 +1326,10 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="14"/>
+      <c r="J3" s="22"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
@@ -1338,28 +1346,28 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
-      <c r="J4" s="14"/>
+      <c r="J4" s="22"/>
     </row>
     <row r="5" spans="1:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="18"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="15"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="16"/>
     </row>
     <row r="6" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="26" t="s">
         <v>34</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1378,12 +1386,12 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="5" t="s">
         <v>28</v>
       </c>
@@ -1402,10 +1410,10 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="14"/>
+      <c r="J7" s="22"/>
     </row>
     <row r="8" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
@@ -1422,28 +1430,28 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="14"/>
+      <c r="J8" s="22"/>
     </row>
     <row r="9" spans="1:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="18"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="15"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="16"/>
     </row>
     <row r="10" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="26" t="s">
         <v>37</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1464,12 +1472,12 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="13" t="s">
+      <c r="J10" s="15" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="5" t="s">
         <v>28</v>
       </c>
@@ -1488,10 +1496,10 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
-      <c r="J11" s="14"/>
+      <c r="J11" s="22"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
@@ -1506,34 +1514,34 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
-      <c r="J12" s="14"/>
+      <c r="J12" s="22"/>
     </row>
     <row r="13" spans="1:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="18"/>
+      <c r="A13" s="28"/>
       <c r="B13" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="15"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="16"/>
     </row>
     <row r="14" spans="1:10" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="19"/>
+      <c r="C14" s="29"/>
       <c r="D14" s="8" t="s">
         <v>20</v>
       </c>
@@ -1550,24 +1558,24 @@
       <c r="A15" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="27" t="s">
+      <c r="C15" s="29"/>
+      <c r="D15" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="29"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="19"/>
       <c r="J15" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="26" t="s">
         <v>58</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1586,12 +1594,12 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="13" t="s">
+      <c r="J16" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="18"/>
+      <c r="A17" s="28"/>
       <c r="B17" s="6" t="s">
         <v>8</v>
       </c>
@@ -1608,10 +1616,10 @@
       <c r="G17" s="6"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
-      <c r="J17" s="15"/>
+      <c r="J17" s="16"/>
     </row>
     <row r="18" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="13" t="s">
         <v>51</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1632,12 +1640,12 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="13" t="s">
+      <c r="J18" s="15" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="31"/>
+      <c r="A19" s="21"/>
       <c r="B19" s="9" t="s">
         <v>28</v>
       </c>
@@ -1654,10 +1662,10 @@
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
-      <c r="J19" s="32"/>
+      <c r="J19" s="23"/>
     </row>
     <row r="20" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="13" t="s">
         <v>52</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1678,12 +1686,12 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
-      <c r="J20" s="13" t="s">
+      <c r="J20" s="15" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="26"/>
+      <c r="A21" s="14"/>
       <c r="B21" s="7" t="s">
         <v>28</v>
       </c>
@@ -1700,10 +1708,10 @@
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
-      <c r="J21" s="15"/>
+      <c r="J21" s="16"/>
     </row>
     <row r="22" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="13" t="s">
         <v>43</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1724,12 +1732,12 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
-      <c r="J22" s="13" t="s">
+      <c r="J22" s="15" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="26"/>
+      <c r="A23" s="14"/>
       <c r="B23" s="7" t="s">
         <v>28</v>
       </c>
@@ -1746,10 +1754,10 @@
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
-      <c r="J23" s="15"/>
-    </row>
-    <row r="24" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="25" t="s">
+      <c r="J23" s="16"/>
+    </row>
+    <row r="24" spans="1:10" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
         <v>44</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -1769,15 +1777,17 @@
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I24" s="2"/>
-      <c r="J24" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J24" s="15" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="30"/>
+      <c r="A25" s="20"/>
       <c r="B25" s="5" t="s">
         <v>28</v>
       </c>
@@ -1796,10 +1806,10 @@
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
-      <c r="J25" s="14"/>
+      <c r="J25" s="22"/>
     </row>
     <row r="26" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="30"/>
+      <c r="A26" s="20"/>
       <c r="B26" s="5" t="s">
         <v>9</v>
       </c>
@@ -1816,57 +1826,46 @@
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
-      <c r="J26" s="14"/>
+      <c r="J26" s="22"/>
     </row>
     <row r="27" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="30"/>
+      <c r="A27" s="20"/>
       <c r="B27" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="34" t="s">
+      <c r="D27" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="14"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="22"/>
     </row>
     <row r="28" spans="1:10" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="31"/>
+      <c r="A28" s="21"/>
       <c r="B28" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="33" t="s">
+      <c r="D28" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="32"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="D15:I15"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="J24:J28"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="D28:I28"/>
-    <mergeCell ref="D27:I27"/>
     <mergeCell ref="J2:J5"/>
     <mergeCell ref="J6:J9"/>
     <mergeCell ref="A10:A13"/>
@@ -1880,6 +1879,17 @@
     <mergeCell ref="D13:I13"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="D15:I15"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="J24:J28"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="D28:I28"/>
+    <mergeCell ref="D27:I27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/commands.xlsx
+++ b/commands.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="66">
   <si>
     <t>Название команды</t>
   </si>
@@ -418,6 +418,12 @@
   </si>
   <si>
     <t>"расположение в файловой системе (относительный путь), в которую идет загрузка ( желательно чтобы это была папка)"</t>
+  </si>
+  <si>
+    <t>"относительный путь к директории/файлу"</t>
+  </si>
+  <si>
+    <t>"новое имя  файла/директории"</t>
   </si>
 </sst>
 </file>
@@ -880,43 +886,13 @@
     <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -944,6 +920,36 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1235,8 +1241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1246,8 +1252,8 @@
     <col min="4" max="4" width="16.7109375" customWidth="1"/>
     <col min="5" max="5" width="35.85546875" customWidth="1"/>
     <col min="6" max="6" width="31.28515625" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
     <col min="10" max="10" width="40.5703125" customWidth="1"/>
   </cols>
@@ -1285,7 +1291,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="16" t="s">
         <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1302,12 +1308,12 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
+      <c r="A3" s="17"/>
       <c r="B3" s="5" t="s">
         <v>28</v>
       </c>
@@ -1326,10 +1332,10 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="22"/>
+      <c r="J3" s="14"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
@@ -1346,28 +1352,28 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
-      <c r="J4" s="22"/>
+      <c r="J4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="28"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="16"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="15"/>
     </row>
     <row r="6" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="16" t="s">
         <v>34</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1386,12 +1392,12 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="5" t="s">
         <v>28</v>
       </c>
@@ -1410,10 +1416,10 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="22"/>
+      <c r="J7" s="14"/>
     </row>
     <row r="8" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
@@ -1430,28 +1436,28 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="22"/>
+      <c r="J8" s="14"/>
     </row>
     <row r="9" spans="1:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="28"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="16"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="15"/>
     </row>
     <row r="10" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="16" t="s">
         <v>37</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1472,12 +1478,12 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="15" t="s">
+      <c r="J10" s="13" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="5" t="s">
         <v>28</v>
       </c>
@@ -1496,10 +1502,10 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
-      <c r="J11" s="22"/>
+      <c r="J11" s="14"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
@@ -1514,34 +1520,34 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
-      <c r="J12" s="22"/>
+      <c r="J12" s="14"/>
     </row>
     <row r="13" spans="1:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="28"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="16"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="15"/>
     </row>
     <row r="14" spans="1:10" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="29"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="8" t="s">
         <v>20</v>
       </c>
@@ -1558,24 +1564,24 @@
       <c r="A15" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="17" t="s">
+      <c r="C15" s="19"/>
+      <c r="D15" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="19"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="29"/>
       <c r="J15" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="16" t="s">
         <v>58</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1594,12 +1600,12 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="15" t="s">
+      <c r="J16" s="13" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="28"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="6" t="s">
         <v>8</v>
       </c>
@@ -1616,10 +1622,10 @@
       <c r="G17" s="6"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
-      <c r="J17" s="16"/>
+      <c r="J17" s="15"/>
     </row>
     <row r="18" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="25" t="s">
         <v>51</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1640,12 +1646,12 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="15" t="s">
+      <c r="J18" s="13" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="21"/>
+      <c r="A19" s="31"/>
       <c r="B19" s="9" t="s">
         <v>28</v>
       </c>
@@ -1662,10 +1668,10 @@
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
-      <c r="J19" s="23"/>
+      <c r="J19" s="32"/>
     </row>
     <row r="20" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="25" t="s">
         <v>52</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1686,12 +1692,12 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
-      <c r="J20" s="15" t="s">
+      <c r="J20" s="13" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="14"/>
+      <c r="A21" s="26"/>
       <c r="B21" s="7" t="s">
         <v>28</v>
       </c>
@@ -1708,10 +1714,10 @@
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
-      <c r="J21" s="16"/>
-    </row>
-    <row r="22" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
+      <c r="J21" s="15"/>
+    </row>
+    <row r="22" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="25" t="s">
         <v>43</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1726,18 +1732,20 @@
       <c r="E22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="15" t="s">
+      <c r="H22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J22" s="13" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="14"/>
+      <c r="A23" s="26"/>
       <c r="B23" s="7" t="s">
         <v>28</v>
       </c>
@@ -1754,10 +1762,10 @@
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
-      <c r="J23" s="16"/>
+      <c r="J23" s="15"/>
     </row>
     <row r="24" spans="1:10" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="25" t="s">
         <v>44</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -1782,12 +1790,12 @@
       <c r="I24" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="J24" s="15" t="s">
+      <c r="J24" s="13" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
+      <c r="A25" s="30"/>
       <c r="B25" s="5" t="s">
         <v>28</v>
       </c>
@@ -1806,10 +1814,10 @@
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
-      <c r="J25" s="22"/>
+      <c r="J25" s="14"/>
     </row>
     <row r="26" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="20"/>
+      <c r="A26" s="30"/>
       <c r="B26" s="5" t="s">
         <v>9</v>
       </c>
@@ -1826,46 +1834,57 @@
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
-      <c r="J26" s="22"/>
+      <c r="J26" s="14"/>
     </row>
     <row r="27" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="20"/>
+      <c r="A27" s="30"/>
       <c r="B27" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="25" t="s">
+      <c r="D27" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="22"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="14"/>
     </row>
     <row r="28" spans="1:10" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="21"/>
+      <c r="A28" s="31"/>
       <c r="B28" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="24" t="s">
+      <c r="D28" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="23"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="D15:I15"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="J24:J28"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="D28:I28"/>
+    <mergeCell ref="D27:I27"/>
     <mergeCell ref="J2:J5"/>
     <mergeCell ref="J6:J9"/>
     <mergeCell ref="A10:A13"/>
@@ -1879,17 +1898,6 @@
     <mergeCell ref="D13:I13"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="D15:I15"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="J24:J28"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="D28:I28"/>
-    <mergeCell ref="D27:I27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/commands.xlsx
+++ b/commands.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="67">
   <si>
     <t>Название команды</t>
   </si>
@@ -424,6 +424,9 @@
   </si>
   <si>
     <t>"новое имя  файла/директории"</t>
+  </si>
+  <si>
+    <t>1/0 загрузка измененного или нового соответственно на стороне клиента</t>
   </si>
 </sst>
 </file>
@@ -886,13 +889,43 @@
     <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -920,36 +953,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1241,8 +1244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:C15"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1291,7 +1294,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="26" t="s">
         <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1308,12 +1311,12 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
+      <c r="A3" s="27"/>
       <c r="B3" s="5" t="s">
         <v>28</v>
       </c>
@@ -1332,10 +1335,10 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="14"/>
+      <c r="J3" s="22"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
@@ -1352,28 +1355,28 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
-      <c r="J4" s="14"/>
+      <c r="J4" s="22"/>
     </row>
     <row r="5" spans="1:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="18"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="15"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="16"/>
     </row>
     <row r="6" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="26" t="s">
         <v>34</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1392,12 +1395,12 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="5" t="s">
         <v>28</v>
       </c>
@@ -1416,10 +1419,10 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="14"/>
+      <c r="J7" s="22"/>
     </row>
     <row r="8" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
@@ -1436,28 +1439,28 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="14"/>
+      <c r="J8" s="22"/>
     </row>
     <row r="9" spans="1:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="18"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="15"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="16"/>
     </row>
     <row r="10" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="26" t="s">
         <v>37</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1478,12 +1481,12 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="13" t="s">
+      <c r="J10" s="15" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="5" t="s">
         <v>28</v>
       </c>
@@ -1502,10 +1505,10 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
-      <c r="J11" s="14"/>
+      <c r="J11" s="22"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
@@ -1520,34 +1523,34 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
-      <c r="J12" s="14"/>
+      <c r="J12" s="22"/>
     </row>
     <row r="13" spans="1:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="18"/>
+      <c r="A13" s="28"/>
       <c r="B13" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="15"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="16"/>
     </row>
     <row r="14" spans="1:10" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="19"/>
+      <c r="C14" s="29"/>
       <c r="D14" s="8" t="s">
         <v>20</v>
       </c>
@@ -1564,24 +1567,24 @@
       <c r="A15" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="27" t="s">
+      <c r="C15" s="29"/>
+      <c r="D15" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="29"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="19"/>
       <c r="J15" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="26" t="s">
         <v>58</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1600,12 +1603,12 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="13" t="s">
+      <c r="J16" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="18"/>
+      <c r="A17" s="28"/>
       <c r="B17" s="6" t="s">
         <v>8</v>
       </c>
@@ -1622,10 +1625,10 @@
       <c r="G17" s="6"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
-      <c r="J17" s="15"/>
+      <c r="J17" s="16"/>
     </row>
     <row r="18" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="13" t="s">
         <v>51</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1646,12 +1649,12 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="13" t="s">
+      <c r="J18" s="15" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="31"/>
+      <c r="A19" s="21"/>
       <c r="B19" s="9" t="s">
         <v>28</v>
       </c>
@@ -1668,10 +1671,10 @@
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
-      <c r="J19" s="32"/>
+      <c r="J19" s="23"/>
     </row>
     <row r="20" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="13" t="s">
         <v>52</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1692,12 +1695,12 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
-      <c r="J20" s="13" t="s">
+      <c r="J20" s="15" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="26"/>
+      <c r="A21" s="14"/>
       <c r="B21" s="7" t="s">
         <v>28</v>
       </c>
@@ -1714,10 +1717,10 @@
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
-      <c r="J21" s="15"/>
+      <c r="J21" s="16"/>
     </row>
     <row r="22" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="13" t="s">
         <v>43</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1740,12 +1743,12 @@
       <c r="I22" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J22" s="13" t="s">
+      <c r="J22" s="15" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="26"/>
+      <c r="A23" s="14"/>
       <c r="B23" s="7" t="s">
         <v>28</v>
       </c>
@@ -1762,10 +1765,10 @@
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
-      <c r="J23" s="15"/>
+      <c r="J23" s="16"/>
     </row>
     <row r="24" spans="1:10" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="13" t="s">
         <v>44</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -1783,19 +1786,21 @@
       <c r="F24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="2"/>
+      <c r="G24" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="H24" s="2" t="s">
         <v>63</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="J24" s="13" t="s">
+      <c r="J24" s="15" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="30"/>
+      <c r="A25" s="20"/>
       <c r="B25" s="5" t="s">
         <v>28</v>
       </c>
@@ -1814,10 +1819,10 @@
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
-      <c r="J25" s="14"/>
+      <c r="J25" s="22"/>
     </row>
     <row r="26" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="30"/>
+      <c r="A26" s="20"/>
       <c r="B26" s="5" t="s">
         <v>9</v>
       </c>
@@ -1834,57 +1839,46 @@
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
-      <c r="J26" s="14"/>
+      <c r="J26" s="22"/>
     </row>
     <row r="27" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="30"/>
+      <c r="A27" s="20"/>
       <c r="B27" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="34" t="s">
+      <c r="D27" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="14"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="22"/>
     </row>
     <row r="28" spans="1:10" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="31"/>
+      <c r="A28" s="21"/>
       <c r="B28" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="33" t="s">
+      <c r="D28" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="32"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="D15:I15"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="J24:J28"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="D28:I28"/>
-    <mergeCell ref="D27:I27"/>
     <mergeCell ref="J2:J5"/>
     <mergeCell ref="J6:J9"/>
     <mergeCell ref="A10:A13"/>
@@ -1898,6 +1892,17 @@
     <mergeCell ref="D13:I13"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="D15:I15"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="J24:J28"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="D28:I28"/>
+    <mergeCell ref="D27:I27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/commands.xlsx
+++ b/commands.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="77">
   <si>
     <t>Название команды</t>
   </si>
@@ -370,7 +370,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Промежуточная операция: ожидаемый объем                                                                   </t>
+      <t xml:space="preserve">Получить результат запроса по хэш-коду                                                                                     </t>
     </r>
     <r>
       <rPr>
@@ -387,8 +387,91 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Получить результат запроса по хэш-коду                                                                                     </t>
+    <t>index - "номер сгенерированного запроса, по которому клиент заберет заявку на получение всех доступных файловых систем"</t>
+  </si>
+  <si>
+    <t>index - "номер сгенерированного запроса, по которому клиент заберет заявку на получение всех каталогов"</t>
+  </si>
+  <si>
+    <t>заявка</t>
+  </si>
+  <si>
+    <t>имя файла</t>
+  </si>
+  <si>
+    <t>"расположение в файловой системе (относительный путь), в которую идет загрузка ( желательно чтобы это была папка)"</t>
+  </si>
+  <si>
+    <t>"относительный путь к директории/файлу"</t>
+  </si>
+  <si>
+    <t>"новое имя  файла/директории"</t>
+  </si>
+  <si>
+    <t>1/0 загрузка измененного или нового соответственно на стороне клиента</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>версия клиентского приложения</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Обновить клиентскую часть </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Поддерживается)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <t>update_version</t>
+  </si>
+  <si>
+    <t>размер запроса</t>
+  </si>
+  <si>
+    <t>file_update</t>
+  </si>
+  <si>
+    <t>относительный путь</t>
+  </si>
+  <si>
+    <t>ответ в байтах (массив: относительный путь + isFile)</t>
+  </si>
+  <si>
+    <t>При устаревшей версии клиентского приложения, производит удалённое обновление</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Промежуточная операция: ожидаемый объем                                                                         </t>
     </r>
     <r>
       <rPr>
@@ -403,30 +486,6 @@
       </rPr>
       <t>(Не поддерживается)</t>
     </r>
-  </si>
-  <si>
-    <t>index - "номер сгенерированного запроса, по которому клиент заберет заявку на получение всех доступных файловых систем"</t>
-  </si>
-  <si>
-    <t>index - "номер сгенерированного запроса, по которому клиент заберет заявку на получение всех каталогов"</t>
-  </si>
-  <si>
-    <t>заявка</t>
-  </si>
-  <si>
-    <t>имя файла</t>
-  </si>
-  <si>
-    <t>"расположение в файловой системе (относительный путь), в которую идет загрузка ( желательно чтобы это была папка)"</t>
-  </si>
-  <si>
-    <t>"относительный путь к директории/файлу"</t>
-  </si>
-  <si>
-    <t>"новое имя  файла/директории"</t>
-  </si>
-  <si>
-    <t>1/0 загрузка измененного или нового соответственно на стороне клиента</t>
   </si>
 </sst>
 </file>
@@ -851,7 +910,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -889,43 +948,13 @@
     <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -953,6 +982,39 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1242,10 +1304,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1294,7 +1356,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="16" t="s">
         <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1311,12 +1373,12 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
+      <c r="A3" s="17"/>
       <c r="B3" s="5" t="s">
         <v>28</v>
       </c>
@@ -1330,15 +1392,15 @@
         <v>23</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="22"/>
+      <c r="J3" s="14"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
@@ -1355,28 +1417,28 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
-      <c r="J4" s="22"/>
+      <c r="J4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="28"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="16"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="15"/>
     </row>
     <row r="6" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="16" t="s">
         <v>34</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1395,12 +1457,12 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="5" t="s">
         <v>28</v>
       </c>
@@ -1414,15 +1476,15 @@
         <v>23</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="22"/>
+      <c r="J7" s="14"/>
     </row>
     <row r="8" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
@@ -1439,28 +1501,28 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="22"/>
+      <c r="J8" s="14"/>
     </row>
     <row r="9" spans="1:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="28"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="16"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="15"/>
     </row>
     <row r="10" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="16" t="s">
         <v>37</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1481,12 +1543,12 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="15" t="s">
+      <c r="J10" s="13" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="5" t="s">
         <v>28</v>
       </c>
@@ -1505,10 +1567,10 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
-      <c r="J11" s="22"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
+      <c r="J11" s="14"/>
+    </row>
+    <row r="12" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
@@ -1523,34 +1585,34 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
-      <c r="J12" s="22"/>
+      <c r="J12" s="14"/>
     </row>
     <row r="13" spans="1:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="28"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="16"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="15"/>
     </row>
     <row r="14" spans="1:10" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="29"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="8" t="s">
         <v>20</v>
       </c>
@@ -1565,27 +1627,27 @@
     </row>
     <row r="15" spans="1:10" ht="113.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="17" t="s">
+      <c r="C15" s="19"/>
+      <c r="D15" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="19"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="29"/>
       <c r="J15" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
-        <v>58</v>
+      <c r="A16" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>9</v>
@@ -1603,12 +1665,12 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="15" t="s">
+      <c r="J16" s="13" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="28"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="6" t="s">
         <v>8</v>
       </c>
@@ -1625,10 +1687,10 @@
       <c r="G17" s="6"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
-      <c r="J17" s="16"/>
+      <c r="J17" s="15"/>
     </row>
     <row r="18" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="25" t="s">
         <v>51</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1649,12 +1711,12 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="15" t="s">
+      <c r="J18" s="13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="21"/>
+    <row r="19" spans="1:10" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="31"/>
       <c r="B19" s="9" t="s">
         <v>28</v>
       </c>
@@ -1671,10 +1733,10 @@
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
-      <c r="J19" s="23"/>
-    </row>
-    <row r="20" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+      <c r="J19" s="32"/>
+    </row>
+    <row r="20" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
         <v>52</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1695,12 +1757,12 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
-      <c r="J20" s="15" t="s">
+      <c r="J20" s="13" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="14"/>
+      <c r="A21" s="26"/>
       <c r="B21" s="7" t="s">
         <v>28</v>
       </c>
@@ -1717,10 +1779,10 @@
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
-      <c r="J21" s="16"/>
+      <c r="J21" s="15"/>
     </row>
     <row r="22" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="25" t="s">
         <v>43</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1738,17 +1800,17 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I22" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="I22" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J22" s="15" t="s">
+      <c r="J22" s="13" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="14"/>
+      <c r="A23" s="26"/>
       <c r="B23" s="7" t="s">
         <v>28</v>
       </c>
@@ -1765,10 +1827,10 @@
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
-      <c r="J23" s="16"/>
+      <c r="J23" s="15"/>
     </row>
     <row r="24" spans="1:10" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="25" t="s">
         <v>44</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -1787,20 +1849,20 @@
         <v>12</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J24" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="J24" s="13" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
+      <c r="A25" s="30"/>
       <c r="B25" s="5" t="s">
         <v>28</v>
       </c>
@@ -1819,10 +1881,10 @@
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
-      <c r="J25" s="22"/>
+      <c r="J25" s="14"/>
     </row>
     <row r="26" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="20"/>
+      <c r="A26" s="30"/>
       <c r="B26" s="5" t="s">
         <v>9</v>
       </c>
@@ -1834,51 +1896,272 @@
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
-      <c r="J26" s="22"/>
+      <c r="J26" s="14"/>
     </row>
     <row r="27" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="20"/>
+      <c r="A27" s="30"/>
       <c r="B27" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="25" t="s">
+      <c r="D27" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="22"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="14"/>
     </row>
     <row r="28" spans="1:10" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="21"/>
-      <c r="B28" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="9" t="s">
+      <c r="A28" s="26"/>
+      <c r="B28" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="24" t="s">
+      <c r="D28" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="23"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="15"/>
+    </row>
+    <row r="29" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="30"/>
+      <c r="B30" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="14"/>
+    </row>
+    <row r="31" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="30"/>
+      <c r="B31" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="14"/>
+    </row>
+    <row r="32" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="30"/>
+      <c r="B32" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="14"/>
+    </row>
+    <row r="33" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="30"/>
+      <c r="B33" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="14"/>
+    </row>
+    <row r="34" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="30"/>
+      <c r="B34" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E34" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="14"/>
+    </row>
+    <row r="35" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="30"/>
+      <c r="B35" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I35" s="5"/>
+      <c r="J35" s="14"/>
+    </row>
+    <row r="36" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="30"/>
+      <c r="B36" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="14"/>
+    </row>
+    <row r="37" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="30"/>
+      <c r="B37" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="14"/>
+    </row>
+    <row r="38" spans="1:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="31"/>
+      <c r="B38" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E38" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="28">
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="E38:I38"/>
+    <mergeCell ref="A29:A38"/>
+    <mergeCell ref="J29:J38"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="D15:I15"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="J24:J28"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="D28:I28"/>
+    <mergeCell ref="D27:I27"/>
     <mergeCell ref="J2:J5"/>
     <mergeCell ref="J6:J9"/>
     <mergeCell ref="A10:A13"/>
@@ -1892,17 +2175,6 @@
     <mergeCell ref="D13:I13"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="D15:I15"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="J24:J28"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="D28:I28"/>
-    <mergeCell ref="D27:I27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/commands.xlsx
+++ b/commands.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="86">
   <si>
     <t>Название команды</t>
   </si>
@@ -517,6 +517,9 @@
       </rPr>
       <t>(Поддерживается)</t>
     </r>
+  </si>
+  <si>
+    <t>Сервер (fast)+B2:C15E40C2:C10B2:C23B2:C30E40B2:C31</t>
   </si>
 </sst>
 </file>
@@ -932,7 +935,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -946,52 +949,73 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1003,44 +1027,35 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1331,8 +1346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" topLeftCell="B8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1381,849 +1396,862 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="22"/>
+      <c r="B3" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="C3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="19"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="22"/>
+      <c r="B4" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9" t="s">
+      <c r="E4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="19"/>
+    </row>
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="23"/>
+      <c r="B5" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="20"/>
+    </row>
+    <row r="6" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="9" t="s">
+      <c r="D6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22"/>
+      <c r="B7" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="10"/>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="9" t="s">
+      <c r="F7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="19"/>
+    </row>
+    <row r="8" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="22"/>
+      <c r="B8" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="9" t="s">
+      <c r="D8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="10"/>
-    </row>
-    <row r="5" spans="1:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12" t="s">
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="19"/>
+    </row>
+    <row r="9" spans="1:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="23"/>
+      <c r="B9" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="20"/>
+    </row>
+    <row r="10" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="22"/>
+      <c r="B11" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="19"/>
+    </row>
+    <row r="12" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="22"/>
+      <c r="B12" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="19"/>
+    </row>
+    <row r="13" spans="1:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="23"/>
+      <c r="B13" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="20"/>
+    </row>
+    <row r="14" spans="1:10" ht="36" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" spans="1:10" ht="113.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="24"/>
+      <c r="D15" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="13" t="s">
+      <c r="D16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="23"/>
+      <c r="B17" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="20"/>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="17"/>
+      <c r="B19" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="33"/>
+    </row>
+    <row r="20" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="32"/>
+      <c r="B21" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="20"/>
+    </row>
+    <row r="22" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J22" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="32"/>
+      <c r="B23" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="20"/>
+    </row>
+    <row r="24" spans="1:10" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J24" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="31"/>
+      <c r="B25" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="19"/>
+    </row>
+    <row r="26" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="31"/>
+      <c r="B26" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="19"/>
+    </row>
+    <row r="27" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="31"/>
+      <c r="B27" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="19"/>
+    </row>
+    <row r="28" spans="1:10" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="32"/>
+      <c r="B28" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="16"/>
-    </row>
-    <row r="6" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="20"/>
+    </row>
+    <row r="29" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9" t="s">
+      <c r="D29" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="31"/>
+      <c r="B30" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="10"/>
-    </row>
-    <row r="8" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="9" t="s">
+      <c r="C30" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="19"/>
+    </row>
+    <row r="31" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="31"/>
+      <c r="B31" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="19"/>
+    </row>
+    <row r="32" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="31"/>
+      <c r="B32" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="19"/>
+    </row>
+    <row r="33" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="31"/>
+      <c r="B33" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="9" t="s">
+      <c r="D33" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="10"/>
-    </row>
-    <row r="9" spans="1:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12" t="s">
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="19"/>
+    </row>
+    <row r="34" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="31"/>
+      <c r="B34" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-    </row>
-    <row r="10" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="C34" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E34" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="19"/>
+    </row>
+    <row r="35" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="31"/>
+      <c r="B35" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9" t="s">
+      <c r="D35" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I35" s="6"/>
+      <c r="J35" s="19"/>
+    </row>
+    <row r="36" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="31"/>
+      <c r="B36" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="10"/>
-    </row>
-    <row r="12" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="9" t="s">
+      <c r="C36" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="19"/>
+    </row>
+    <row r="37" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="31"/>
+      <c r="B37" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="10"/>
-    </row>
-    <row r="13" spans="1:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12" t="s">
+      <c r="D37" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="19"/>
+    </row>
+    <row r="38" spans="1:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="32"/>
+      <c r="B38" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-    </row>
-    <row r="14" spans="1:10" ht="36" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="20"/>
-    </row>
-    <row r="15" spans="1:10" ht="113.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="11"/>
-      <c r="B17" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="16"/>
-    </row>
-    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="6" t="s">
+      <c r="C38" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E38" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="20"/>
+    </row>
+    <row r="39" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="25"/>
-      <c r="B19" s="26" t="s">
+      <c r="D39" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G39" s="12"/>
+      <c r="H39" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J39" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="17"/>
+      <c r="B40" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="27"/>
-    </row>
-    <row r="20" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="28"/>
-      <c r="B21" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="16"/>
-    </row>
-    <row r="22" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="28"/>
-      <c r="B23" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="16"/>
-    </row>
-    <row r="24" spans="1:10" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="29"/>
-      <c r="B25" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="10"/>
-    </row>
-    <row r="26" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="29"/>
-      <c r="B26" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="10"/>
-    </row>
-    <row r="27" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="29"/>
-      <c r="B27" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="10"/>
-    </row>
-    <row r="28" spans="1:10" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="28"/>
-      <c r="B28" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="16"/>
-    </row>
-    <row r="29" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="29"/>
-      <c r="B30" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="10"/>
-    </row>
-    <row r="31" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="29"/>
-      <c r="B31" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="10"/>
-    </row>
-    <row r="32" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="29"/>
-      <c r="B32" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="10"/>
-    </row>
-    <row r="33" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="29"/>
-      <c r="B33" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="10"/>
-    </row>
-    <row r="34" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="29"/>
-      <c r="B34" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E34" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="10"/>
-    </row>
-    <row r="35" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="29"/>
-      <c r="B35" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="I35" s="9"/>
-      <c r="J35" s="10"/>
-    </row>
-    <row r="36" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="29"/>
-      <c r="B36" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="10"/>
-    </row>
-    <row r="37" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="29"/>
-      <c r="B37" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="10"/>
-    </row>
-    <row r="38" spans="1:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="28"/>
-      <c r="B38" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E38" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="32"/>
-      <c r="I38" s="32"/>
-      <c r="J38" s="16"/>
-    </row>
-    <row r="39" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D39" s="6" t="s">
+      <c r="C40" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33" t="s">
+      <c r="E40" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F40" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="G39" s="33"/>
-      <c r="H39" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="J39" s="34" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="25"/>
-      <c r="B40" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C40" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="E40" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="F40" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35" t="s">
+      <c r="G40" s="14"/>
+      <c r="H40" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="I40" s="35"/>
-      <c r="J40" s="36"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="E38:I38"/>
+    <mergeCell ref="A29:A38"/>
+    <mergeCell ref="J29:J38"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="J24:J28"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="D28:I28"/>
+    <mergeCell ref="D27:I27"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="J2:J5"/>
     <mergeCell ref="J6:J9"/>
@@ -2240,19 +2268,6 @@
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="D15:I15"/>
     <mergeCell ref="A24:A28"/>
-    <mergeCell ref="J24:J28"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="D28:I28"/>
-    <mergeCell ref="D27:I27"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="E38:I38"/>
-    <mergeCell ref="A29:A38"/>
-    <mergeCell ref="J29:J38"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="J22:J23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/commands.xlsx
+++ b/commands.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="85">
   <si>
     <t>Название команды</t>
   </si>
@@ -517,9 +517,6 @@
       </rPr>
       <t>(Поддерживается)</t>
     </r>
-  </si>
-  <si>
-    <t>Сервер (fast)+B2:C15E40C2:C10B2:C23B2:C30E40B2:C31</t>
   </si>
 </sst>
 </file>
@@ -935,7 +932,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -949,27 +946,90 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -981,81 +1041,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1346,8 +1331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="C37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1396,862 +1381,849 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="18" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
-      <c r="B3" s="40" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="19"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="10"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
-      <c r="B4" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="19"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="10"/>
     </row>
     <row r="5" spans="1:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="23"/>
-      <c r="B5" s="38" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="25" t="s">
+      <c r="C5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="20"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="16"/>
     </row>
     <row r="6" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="18" t="s">
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
-      <c r="B7" s="40" t="s">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="C7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="19"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="10"/>
     </row>
     <row r="8" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="19"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="10"/>
     </row>
     <row r="9" spans="1:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
-      <c r="B9" s="38" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="25" t="s">
+      <c r="C9" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="20"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="16"/>
     </row>
     <row r="10" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B10" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="B10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="18" t="s">
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
-      <c r="B11" s="40" t="s">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="6" t="s">
+      <c r="C11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="19"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="10"/>
     </row>
     <row r="12" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
-      <c r="B12" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="19"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="10"/>
     </row>
     <row r="13" spans="1:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
-      <c r="B13" s="38" t="s">
+      <c r="A13" s="11"/>
+      <c r="B13" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="25" t="s">
+      <c r="C13" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="20"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
     </row>
     <row r="14" spans="1:10" ht="36" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="9" t="s">
+      <c r="C14" s="18"/>
+      <c r="D14" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="10"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="20"/>
     </row>
     <row r="15" spans="1:10" ht="113.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="28" t="s">
+      <c r="C15" s="18"/>
+      <c r="D15" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="10" t="s">
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="20" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B16" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="5" t="s">
+      <c r="B16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5" t="s">
+      <c r="E16" s="6"/>
+      <c r="F16" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="18" t="s">
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="23"/>
-      <c r="B17" s="38" t="s">
+      <c r="A17" s="11"/>
+      <c r="B17" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="7" t="s">
+      <c r="C17" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7" t="s">
+      <c r="E17" s="12"/>
+      <c r="F17" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="20"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="16"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="B18" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="5" t="s">
+      <c r="B18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="18" t="s">
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="17"/>
-      <c r="B19" s="39" t="s">
+      <c r="A19" s="25"/>
+      <c r="B19" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="11" t="s">
+      <c r="C19" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="33"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="27"/>
     </row>
     <row r="20" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="B20" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="5" t="s">
+      <c r="B20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="18" t="s">
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="7" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="32"/>
-      <c r="B21" s="38" t="s">
+      <c r="A21" s="28"/>
+      <c r="B21" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="7" t="s">
+      <c r="C21" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="20"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="16"/>
     </row>
     <row r="22" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="B22" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="5" t="s">
+      <c r="B22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5" t="s">
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="I22" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="J22" s="18" t="s">
+      <c r="J22" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="32"/>
-      <c r="B23" s="38" t="s">
+      <c r="A23" s="28"/>
+      <c r="B23" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="7" t="s">
+      <c r="C23" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="20"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="16"/>
     </row>
     <row r="24" spans="1:10" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="B24" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="5" t="s">
+      <c r="B24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="I24" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="J24" s="18" t="s">
+      <c r="J24" s="7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="31"/>
-      <c r="B25" s="40" t="s">
+      <c r="A25" s="29"/>
+      <c r="B25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="6" t="s">
+      <c r="C25" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="19"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="10"/>
     </row>
     <row r="26" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="31"/>
-      <c r="B26" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="6" t="s">
+      <c r="A26" s="29"/>
+      <c r="B26" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6" t="s">
+      <c r="E26" s="9"/>
+      <c r="F26" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="19"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="10"/>
     </row>
     <row r="27" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="31"/>
-      <c r="B27" s="40" t="s">
+      <c r="A27" s="29"/>
+      <c r="B27" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="35" t="s">
+      <c r="C27" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="19"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="10"/>
     </row>
     <row r="28" spans="1:10" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="32"/>
-      <c r="B28" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="7" t="s">
+      <c r="A28" s="28"/>
+      <c r="B28" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="34" t="s">
+      <c r="D28" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="20"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="16"/>
     </row>
     <row r="29" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="B29" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="5" t="s">
+      <c r="B29" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="18" t="s">
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="7" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="31"/>
-      <c r="B30" s="40" t="s">
+      <c r="A30" s="29"/>
+      <c r="B30" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="6" t="s">
+      <c r="C30" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="19"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="10"/>
     </row>
     <row r="31" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="31"/>
-      <c r="B31" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="6" t="s">
+      <c r="A31" s="29"/>
+      <c r="B31" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="19"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="10"/>
     </row>
     <row r="32" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="31"/>
-      <c r="B32" s="40" t="s">
+      <c r="A32" s="29"/>
+      <c r="B32" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="6" t="s">
+      <c r="C32" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="F32" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="19"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="10"/>
     </row>
     <row r="33" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="31"/>
-      <c r="B33" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="6" t="s">
+      <c r="A33" s="29"/>
+      <c r="B33" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="19"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="10"/>
     </row>
     <row r="34" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="31"/>
-      <c r="B34" s="40" t="s">
+      <c r="A34" s="29"/>
+      <c r="B34" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="6" t="s">
+      <c r="C34" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E34" s="35" t="s">
+      <c r="E34" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="19"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="10"/>
     </row>
     <row r="35" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="31"/>
-      <c r="B35" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="6" t="s">
+      <c r="A35" s="29"/>
+      <c r="B35" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6" t="s">
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="I35" s="6"/>
-      <c r="J35" s="19"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="10"/>
     </row>
     <row r="36" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="31"/>
-      <c r="B36" s="40" t="s">
+      <c r="A36" s="29"/>
+      <c r="B36" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C36" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="6" t="s">
+      <c r="C36" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="19"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="10"/>
     </row>
     <row r="37" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="31"/>
-      <c r="B37" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="6" t="s">
+      <c r="A37" s="29"/>
+      <c r="B37" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E37" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="19"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="10"/>
     </row>
     <row r="38" spans="1:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="32"/>
-      <c r="B38" s="38" t="s">
+      <c r="A38" s="28"/>
+      <c r="B38" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="7" t="s">
+      <c r="C38" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E38" s="36" t="s">
+      <c r="E38" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="20"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="16"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="B39" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="5" t="s">
+      <c r="B39" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12" t="s">
+      <c r="E39" s="33"/>
+      <c r="F39" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="G39" s="12"/>
-      <c r="H39" s="5" t="s">
+      <c r="G39" s="33"/>
+      <c r="H39" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="I39" s="5" t="s">
+      <c r="I39" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="J39" s="13" t="s">
+      <c r="J39" s="34" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="17"/>
-      <c r="B40" s="39" t="s">
+      <c r="A40" s="25"/>
+      <c r="B40" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C40" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="11" t="s">
+      <c r="C40" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="E40" s="11" t="s">
+      <c r="E40" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="F40" s="14" t="s">
+      <c r="F40" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14" t="s">
+      <c r="G40" s="35"/>
+      <c r="H40" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="I40" s="14"/>
-      <c r="J40" s="15"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="E38:I38"/>
-    <mergeCell ref="A29:A38"/>
-    <mergeCell ref="J29:J38"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="J24:J28"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="D28:I28"/>
-    <mergeCell ref="D27:I27"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="J2:J5"/>
     <mergeCell ref="J6:J9"/>
@@ -2268,6 +2240,19 @@
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="D15:I15"/>
     <mergeCell ref="A24:A28"/>
+    <mergeCell ref="J24:J28"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="D28:I28"/>
+    <mergeCell ref="D27:I27"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="E38:I38"/>
+    <mergeCell ref="A29:A38"/>
+    <mergeCell ref="J29:J38"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="J22:J23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
